--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>LỚP NHẬP MÔN 03</t>
   </si>
@@ -58,13 +58,22 @@
   </si>
   <si>
     <t>Huỳnh Thị Phương Thủy</t>
+  </si>
+  <si>
+    <t>Quách Văn Thiên An</t>
+  </si>
+  <si>
+    <t>an04031999@gmail.com</t>
+  </si>
+  <si>
+    <t>0969143833</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +84,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,14 +114,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,15 +428,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,19 +494,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F38" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>LỚP NHẬP MÔN 03</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>0969143833</t>
+  </si>
+  <si>
+    <t>Lê Văn Huy</t>
+  </si>
+  <si>
+    <t>0925585834</t>
+  </si>
+  <si>
+    <t>lehuy180199@gmai.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <dimension ref="C4:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,8 +507,15 @@
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
@@ -520,9 +536,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F38" r:id="rId1"/>
+    <hyperlink ref="F37" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>LỚP NHẬP MÔN 03</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>lehuy180199@gmai.com</t>
+  </si>
+  <si>
+    <t>Lê Thành Trung</t>
+  </si>
+  <si>
+    <t>bomaylatrung@gmai.com</t>
+  </si>
+  <si>
+    <t>01207142213</t>
   </si>
 </sst>
 </file>
@@ -437,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +537,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>8</v>
@@ -537,9 +557,10 @@
   <hyperlinks>
     <hyperlink ref="F38" r:id="rId1"/>
     <hyperlink ref="F37" r:id="rId2"/>
+    <hyperlink ref="F39" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -75,9 +75,6 @@
     <t>0925585834</t>
   </si>
   <si>
-    <t>lehuy180199@gmai.com</t>
-  </si>
-  <si>
     <t>Lê Thành Trung</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>bomaylatrung1998@gmai.com</t>
+  </si>
+  <si>
+    <t>lehuy180199@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="C4:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
@@ -539,13 +539,13 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -81,10 +81,10 @@
     <t>Lê Thành Trung</t>
   </si>
   <si>
-    <t>bomaylatrung@gmai.com</t>
-  </si>
-  <si>
     <t>01207142213</t>
+  </si>
+  <si>
+    <t>bomaylatrung1998@gmai.com</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="C4:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +542,10 @@
         <v>20</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -81,10 +81,10 @@
     <t>01207142213</t>
   </si>
   <si>
-    <t>bomaylatrung1998@gmai.com</t>
-  </si>
-  <si>
     <t>lehuy180199@gmail.com</t>
+  </si>
+  <si>
+    <t>bomaylatrung1998@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="C4:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>LỚP NHẬP MÔN 03</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>bomaylatrung1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Lộc</t>
+  </si>
+  <si>
+    <t>01869872623</t>
+  </si>
+  <si>
+    <t>locn2503@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
   <dimension ref="C4:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +557,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>8</v>
@@ -558,9 +578,10 @@
     <hyperlink ref="F38" r:id="rId1"/>
     <hyperlink ref="F37" r:id="rId2"/>
     <hyperlink ref="F39" r:id="rId3"/>
+    <hyperlink ref="F40" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
